--- a/Execl/Drop.xlsx
+++ b/Execl/Drop.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\创客征程\public_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,28 +21,26 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ID1和2为拍卖行稀有道具和普通道具，请勿修改。</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -56,7 +49,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -73,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>Id</t>
   </si>
@@ -95,7 +87,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -105,7 +96,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>DropLib</t>
@@ -150,7 +140,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10034</t>
@@ -160,7 +149,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,1,</t>
@@ -170,7 +158,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -180,7 +167,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -190,7 +176,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -200,7 +185,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;1</t>
@@ -210,7 +194,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>52</t>
@@ -220,7 +203,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,1,</t>
@@ -230,7 +212,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -240,7 +221,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -250,7 +230,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1;153,1,1,1</t>
@@ -326,61 +305,58 @@
     <t>水果机1号位</t>
   </si>
   <si>
-    <t>10004,1,1,1;10004,1,1,1;10004,1,1,1</t>
+    <t>10004,1,1,1</t>
   </si>
   <si>
     <t>水果机2号位</t>
   </si>
   <si>
-    <t>111,1,1,10;112,1,1,10;113,1,1,10;114,1,1,10</t>
+    <t>101,1,1,10</t>
   </si>
   <si>
     <t>水果机3号位</t>
   </si>
   <si>
-    <t>101,1,1,10;102,1,1,10;103,1,1,10;104,1,1,10</t>
-  </si>
-  <si>
     <t>水果机4号位</t>
   </si>
   <si>
-    <t>131,1,1,10;132,1,1,10;133,1,1,10;134,1,1,10</t>
+    <t>131,1,1,10</t>
   </si>
   <si>
     <t>水果机5号位</t>
   </si>
   <si>
-    <t>10006,1,1,1;10006,1,1,1</t>
+    <t>10006,1,1,1</t>
   </si>
   <si>
     <t>水果机6号位</t>
   </si>
   <si>
-    <t>121,1,1,10;122,1,1,10;123,1,1,10;124,1,1,10</t>
+    <t>121,1,1,10</t>
   </si>
   <si>
     <t>水果机7号位</t>
   </si>
   <si>
-    <t>141,1,1,10;142,1,1,10;143,1,1,10;144,1,1,10</t>
+    <t>141,1,1,10</t>
   </si>
   <si>
     <t>水果机8号位</t>
   </si>
   <si>
-    <t>10007,1,1,1;10007,1,1,1</t>
+    <t>10007,1,1,1</t>
   </si>
   <si>
     <t>水果机9号位</t>
   </si>
   <si>
-    <t>10008,1,1,10;10008,1,1,10</t>
+    <t>10008,1,1,10</t>
   </si>
   <si>
     <t>水果机10号位</t>
   </si>
   <si>
-    <t>10002,1,1,1;10002,1,1,1;10002,1,1,1</t>
+    <t>10002,1,1,1</t>
   </si>
   <si>
     <t>水果机11号位</t>
@@ -418,7 +394,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1131,1,1,10;1132,1,1,10;1133,1,1,10;1111,1,1,10;1112,1,1,10;1113,1,1,10;1141,1,1,10;1142,1,1,10;1143,1,1,10</t>
@@ -428,7 +403,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>;2131,1,1,10;2132,1,1,10;2111,1,1,10;2112,1,1,10;2141,1,1,10;2142,1,1,10</t>
@@ -446,7 +420,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>店铺好感度+店铺升级</t>
@@ -456,7 +429,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>E</t>
@@ -536,14 +508,19 @@
   </si>
   <si>
     <t>1001,1,1,3;1002,1,1,3;1003,1,1,3;1004,1,1,3;1005,1,1,3;1006,1,1,3;1007,1,1,3;1008,1,1,3;1009,1,1,3;1010,1,1,3;1011,1,1,3;1012,1,1,3;1013,1,1,3;1014,1,1,3;1015,1,1,3;1016,1,1,3;1017,1,1,3;1018,1,1,3;1019,1,1,3;1020,1,1,3;1021,1,1,3;1022,1,1,3;1023,1,1,3;1024,1,1,3;1025,1,1,3;1026,1,1,3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,7 +532,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -563,21 +539,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -586,7 +559,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -594,32 +566,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,12 +759,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -677,9 +958,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -716,6 +1239,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -752,24 +1278,65 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1056,19 +1623,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XED47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
@@ -1082,7 +1649,7 @@
     <col min="16359" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="45.95" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1140,7 +1707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1157,7 +1724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1174,7 +1741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>1000</v>
       </c>
@@ -1188,7 +1755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1001</v>
       </c>
@@ -1202,7 +1769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>1002</v>
       </c>
@@ -1216,7 +1783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>1003</v>
       </c>
@@ -1230,7 +1797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>1004</v>
       </c>
@@ -1244,7 +1811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>2001</v>
       </c>
@@ -1257,9 +1824,9 @@
       <c r="D11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>2002</v>
       </c>
@@ -1272,9 +1839,9 @@
       <c r="D12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>2003</v>
       </c>
@@ -1287,9 +1854,9 @@
       <c r="D13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>2004</v>
       </c>
@@ -1302,9 +1869,9 @@
       <c r="D14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>2005</v>
       </c>
@@ -1317,492 +1884,498 @@
       <c r="D15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="12">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="13">
         <v>3001</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="13">
-        <v>1</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="15">
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="16">
         <v>3002</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="13">
-        <v>1</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="14">
         <v>3003</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="17">
+        <v>3004</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="16">
-        <v>3004</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="16">
+        <v>3005</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="15">
-        <v>3005</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="13">
-        <v>1</v>
-      </c>
-      <c r="D20" s="14" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="18">
+        <v>3006</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="17">
-        <v>3006</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
-      <c r="D21" s="14" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="19">
+        <v>3007</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="18">
-        <v>3007</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="13">
-        <v>1</v>
-      </c>
-      <c r="D22" s="14" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="14">
+        <v>3008</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="13">
-        <v>3008</v>
-      </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="13">
-        <v>1</v>
-      </c>
-      <c r="D23" s="14" t="s">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="16">
+        <v>3009</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="15">
-        <v>3009</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="13">
-        <v>1</v>
-      </c>
-      <c r="D24" s="14" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="17">
+        <v>3010</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="16">
-        <v>3010</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="13">
-        <v>1</v>
-      </c>
-      <c r="D25" s="14" t="s">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="14">
+        <v>3011</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
-        <v>3011</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="18">
+        <v>3012</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="13">
-        <v>1</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="17">
-        <v>3012</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="13">
-        <v>1</v>
-      </c>
-      <c r="D27" s="14" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="14">
+        <v>4001</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="13">
-        <v>4001</v>
-      </c>
-      <c r="B28" s="13" t="s">
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="13">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="14">
+        <v>4002</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="13">
-        <v>4002</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="13">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="14">
+        <v>4003</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="14">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="13">
-        <v>4003</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="13">
-        <v>1</v>
-      </c>
-      <c r="D30" s="19" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="14">
+        <v>4004</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="14">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="13">
-        <v>4004</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="13">
-        <v>1</v>
-      </c>
-      <c r="D31" s="19" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="14">
+        <v>4005</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="14">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="13">
-        <v>4005</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="13">
-        <v>1</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>4102</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>4103</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>4201</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>4202</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>4203</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>4204</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>4205</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>4206</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>5001</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D41" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>6001</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="1">
         <v>4</v>
       </c>
-      <c r="D42" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D42" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>7001</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>7002</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>7003</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>8001</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>9001</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="1">
         <v>5</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E11:E17"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>